--- a/result/efficient_frontier.xlsx
+++ b/result/efficient_frontier.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="assets_paras" sheetId="1" r:id="rId1"/>
@@ -231,10 +231,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -247,6 +243,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -307,8 +304,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -325,1201 +322,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>efficient_frontier!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>expected_return</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>efficient_frontier!$G$2:$G$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>6.5881266595970963E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0620029402634196E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5358792209297611E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0097555015960342E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.4836317822623644E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.957508020433361E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.4313843363816527E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.9052605955350908E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.037913692572741E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0853013209470481E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.132688954763844E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1800765733919701E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2927353643244641E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.4744333272444879E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6561311509951219E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.837829038425581E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.019526903100206E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.2012247637843641E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.3829226357073949E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.5646204926023389E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.7463183443575481E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.928016218884219E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.1097140895704509E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.29141195775959E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.4731098139487208E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.6548076922095753E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.8365055590472513E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.0182034261453357E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.199901293334906E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.3815991603470252E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.9611020868286858E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5.7089913588118317E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6.4568806568218437E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7.2047698098314697E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>7.9526592111711897E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.7005484666965061E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.4484376593996028E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.10196326849077671</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.1094421630235629</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.1169210558085275</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.1243999467772318</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.13187884138231221</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.13935773439131671</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.1468366262152585</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.1543155197615684</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.16179441256499311</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.16927330551711439</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.17675219811862189</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.18423109159472009</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.1917099830589406</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.199188876539101</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>efficient_frontier!$F$2:$F$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>2.8101656062942119E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.883123020687656E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.9560804350810981E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0290378494745411E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.1019952638679849E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.1749526717189037E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.2479100915443183E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.3208675026256629E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.3938249246440719E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.4667823395112082E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.5397397627575357E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.6126971626195672E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.6856545581611957E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.7586120130113573E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.8315694119806253E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.9045268365193467E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.9774842519208847E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.0504416657201232E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.1233990840321227E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.1963564963098707E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.269313906523866E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.3422713258813007E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.4152287436966912E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.4881861605094227E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.5611435725037668E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.6341009933606063E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.707058409630676E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.7800158260053058E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.8529732424166812E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.9259306587567921E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.9988880745989533E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5.0718454900277141E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.1448029079954292E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.2177603118181912E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5.2907177398658273E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5.3636751536891077E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5.4366325613840208E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5.5095899687838269E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.5825474018981629E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5.6555048179623063E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>5.7284622163086343E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>5.8014196501282013E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>5.874377068377877E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>5.9473344750671377E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6.0202918985582873E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6.0932493148025103E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>6.1662067324972848E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>6.2391641467717827E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>6.3121215695780108E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>6.38507897275815E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>6.4580363956040027E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-31D2-4815-9E85-774E735A083B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="584373184"/>
-        <c:axId val="584373600"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="584373184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="584373600"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="584373600"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="584373184"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1809,19 +611,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -1847,16 +639,16 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>2.8101655915716561E-2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>2.5545137107241761E-3</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>0.6788804457724753</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2">
         <v>-0.77845958538947668</v>
       </c>
       <c r="F2" t="s">
@@ -1867,16 +659,16 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>3.6501992095610503E-2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>4.6701378219732841E-3</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>-0.15804327698459089</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3">
         <v>-2.1535862601378412E-2</v>
       </c>
       <c r="F3" t="s">
@@ -1887,16 +679,16 @@
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>4.9476283262122722E-2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>1.7198962371561839E-2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>-0.37027015905608579</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>1.0478484657721121</v>
       </c>
       <c r="F4" t="s">
@@ -1907,16 +699,16 @@
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>0.1003294978307281</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>0.21932980127943011</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>0.38037167503474317</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>2.2864483196812322</v>
       </c>
       <c r="F5" t="s">
@@ -1926,7 +718,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1934,17 +725,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -2039,24 +822,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="30.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2082,7 +856,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -2098,17 +872,21 @@
       <c r="E2">
         <v>2.775557561562891E-17</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>2.8101656062942119E-2</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>6.5881266595970963E-3</v>
       </c>
       <c r="H2">
         <v>0.77437127829204688</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J2" s="3">
+        <f>F2/G2</f>
+        <v>4.2655002726770137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -2124,17 +902,21 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>2.883123020687656E-2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>7.0620029402634196E-3</v>
       </c>
       <c r="H3">
         <v>0.8257190284685797</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J3">
+        <f t="shared" ref="J3:J52" si="0">F3/G3</f>
+        <v>4.0825854153214394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -2150,17 +932,21 @@
       <c r="E4">
         <v>1.110223024625157E-16</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>2.9560804350810981E-2</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>7.5358792209297611E-3</v>
       </c>
       <c r="H4">
         <v>0.87060901037125682</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>3.9226749108067351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -2176,17 +962,21 @@
       <c r="E5">
         <v>2.775557561562891E-17</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>3.0290378494745411E-2</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>8.0097555015960342E-3</v>
       </c>
       <c r="H5">
         <v>0.91018739502007584</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>3.7816857816333735</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -2202,17 +992,21 @@
       <c r="E6">
         <v>5.5511151231257827E-17</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>3.1019952638679849E-2</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>8.4836317822623644E-3</v>
       </c>
       <c r="H6">
         <v>0.94534426346131861</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>3.6564473134650397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -2228,17 +1022,21 @@
       <c r="E7">
         <v>1.5178830414797059E-17</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>3.1749526717189037E-2</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>8.957508020433361E-3</v>
       </c>
       <c r="H7">
         <v>0.97678134334126321</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>3.5444597587592233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -2254,17 +1052,21 @@
       <c r="E8">
         <v>1.0408340855860839E-17</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>3.2479100915443183E-2</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>9.4313843363816527E-3</v>
       </c>
       <c r="H8">
         <v>1.0050593398974801</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>3.4437257307132261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -2280,17 +1082,21 @@
       <c r="E9">
         <v>2.9490299091605721E-17</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>3.3208675026256629E-2</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>9.9052605955350908E-3</v>
       </c>
       <c r="H9">
         <v>1.030631645456991</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>3.3526301207285569</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -2306,17 +1112,21 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>3.3938249246440719E-2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>1.037913692572741E-2</v>
       </c>
       <c r="H10">
         <v>1.0538688645033101</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>3.2698527333535679</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -2332,17 +1142,21 @@
       <c r="E11">
         <v>6.9388939039072284E-18</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>3.4667823395112082E-2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>1.0853013209470481E-2</v>
       </c>
       <c r="H11">
         <v>1.075076862979452</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>3.1943039896846792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -2358,17 +1172,21 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>3.5397397627575357E-2</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>1.132688954763844E-2</v>
       </c>
       <c r="H12">
         <v>1.094510330963729</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>3.1250766133722401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -2384,17 +1202,21 @@
       <c r="E13">
         <v>4.163336342344337E-17</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>3.6126971626195672E-2</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>1.1800765733919701E-2</v>
       </c>
       <c r="H13">
         <v>1.112383037014621</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>3.0614091018139264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -2410,17 +1232,21 @@
       <c r="E14">
         <v>2.775557561562891E-17</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>3.6856545581611957E-2</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>1.2927353643244641E-2</v>
       </c>
       <c r="H14">
         <v>1.071877970078809</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>2.8510510811988059</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -2436,17 +1262,21 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>3.7586120130113573E-2</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>1.4744333272444879E-2</v>
       </c>
       <c r="H15">
         <v>0.98926956279352529</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>2.5491908949424547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -2462,17 +1292,21 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>3.8315694119806253E-2</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>1.6561311509951219E-2</v>
       </c>
       <c r="H16">
         <v>0.92478751520394264</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>2.313566416330219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -2488,17 +1322,21 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>3.9045268365193467E-2</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>1.837829038425581E-2</v>
       </c>
       <c r="H17">
         <v>0.87305554704582444</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>2.1245321272452253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -2514,17 +1352,21 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>3.9774842519208847E-2</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>2.019526903100206E-2</v>
       </c>
       <c r="H18">
         <v>0.83063228786195153</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>1.9695128823562533</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -2540,17 +1382,21 @@
       <c r="E19">
         <v>4.8572257327350599E-17</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>4.0504416657201232E-2</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>2.2012247637843641E-2</v>
       </c>
       <c r="H19">
         <v>0.79521259914900688</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>1.8400854525898436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -2566,17 +1412,21 @@
       <c r="E20">
         <v>1.700029006457271E-16</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>4.1233990840321227E-2</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <v>2.3829226357073949E-2</v>
       </c>
       <c r="H20">
         <v>0.76519441156377632</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>1.7303957007433646</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -2592,17 +1442,21 @@
       <c r="E21">
         <v>3.4932993997482948E-16</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>4.1963564963098707E-2</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>2.5646204926023389E-2</v>
       </c>
       <c r="H21">
         <v>0.73942967459704934</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>1.6362485242609122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -2618,17 +1472,21 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>4.269313906523866E-2</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <v>2.7463183443575481E-2</v>
       </c>
       <c r="H22">
         <v>0.71707415513934214</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>1.5545590027082588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
@@ -2644,17 +1502,21 @@
       <c r="E23">
         <v>4.5363018896793506E-16</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>4.3422713258813007E-2</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="2">
         <v>2.928016218884219E-2</v>
       </c>
       <c r="H23">
         <v>0.69749317394817933</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>1.4830079484791969</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
@@ -2670,17 +1532,21 @@
       <c r="E24">
         <v>2.6714741530042829E-16</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>4.4152287436966912E-2</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <v>3.1097140895704509E-2</v>
       </c>
       <c r="H24">
         <v>0.68020039230965756</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>1.4198182265388175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -2696,17 +1562,21 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>4.4881861605094227E-2</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="2">
         <v>3.29141195775959E-2</v>
       </c>
       <c r="H25">
         <v>0.66481685932710954</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>1.363605108721929</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
@@ -2722,17 +1592,21 @@
       <c r="E26">
         <v>1.387778780781446E-17</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>4.5611435725037668E-2</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="2">
         <v>3.4731098139487208E-2</v>
       </c>
       <c r="H26">
         <v>0.65104292511067496</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>1.3132736414452775</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
@@ -2748,17 +1622,21 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <v>4.6341009933606063E-2</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="2">
         <v>3.6548076922095753E-2</v>
       </c>
       <c r="H27">
         <v>0.63863852490402462</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>1.2679466017428083</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
@@ -2774,17 +1652,21 @@
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <v>4.707058409630676E-2</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="2">
         <v>3.8365055590472513E-2</v>
       </c>
       <c r="H28">
         <v>0.62740907645874466</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>1.2269129647239754</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
@@ -2800,17 +1682,21 @@
       <c r="E29">
         <v>9.540979117872439E-17</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>4.7800158260053058E-2</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="2">
         <v>4.0182034261453357E-2</v>
       </c>
       <c r="H29">
         <v>0.61719518973791399</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>1.1895903017012697</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>45</v>
       </c>
@@ -2826,17 +1712,21 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <v>4.8529732424166812E-2</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="2">
         <v>4.199901293334906E-2</v>
       </c>
       <c r="H30">
         <v>0.60786505779746747</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>1.1554969756356364</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>46</v>
       </c>
@@ -2852,17 +1742,21 @@
       <c r="E31">
         <v>2.775557561562891E-17</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <v>4.9259306587567921E-2</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="2">
         <v>4.3815991603470252E-2</v>
       </c>
       <c r="H31">
         <v>0.59930873698378584</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>1.1242312403507617</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
@@ -2878,17 +1772,21 @@
       <c r="E32">
         <v>1.007994259979908E-2</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <v>4.9988880745989533E-2</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="2">
         <v>4.9611020868286858E-2</v>
       </c>
       <c r="H32">
         <v>0.54400978398817412</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>1.007616450359001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
@@ -2904,17 +1802,21 @@
       <c r="E33">
         <v>2.4426609973271871E-2</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <v>5.0718454900277141E-2</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="2">
         <v>5.7089913588118317E-2</v>
       </c>
       <c r="H33">
         <v>0.485522803559576</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>0.88839607055970005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>49</v>
       </c>
@@ -2930,17 +1832,21 @@
       <c r="E34">
         <v>3.8773277846014587E-2</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <v>5.1448029079954292E-2</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="2">
         <v>6.4568806568218437E-2</v>
       </c>
       <c r="H34">
         <v>0.44058471252520809</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>0.79679386710668498</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>50</v>
       </c>
@@ -2956,17 +1862,21 @@
       <c r="E35">
         <v>5.3119942937233079E-2</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <v>5.2177603118181912E-2</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="2">
         <v>7.2047698098314697E-2</v>
       </c>
       <c r="H35">
         <v>0.40497620171524151</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>0.72420916275467273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>51</v>
       </c>
@@ -2982,17 +1892,21 @@
       <c r="E36">
         <v>6.7466612792137004E-2</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="2">
         <v>5.2907177398658273E-2</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="2">
         <v>7.9526592111711897E-2</v>
       </c>
       <c r="H36">
         <v>0.37606511991168101</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>0.6652765571085828</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>52</v>
       </c>
@@ -3008,17 +1922,21 @@
       <c r="E37">
         <v>8.1813279849901249E-2</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
         <v>5.3636751536891077E-2</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="2">
         <v>8.7005484666965061E-2</v>
       </c>
       <c r="H37">
         <v>0.35212437071249941</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>0.61647552153980822</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>53</v>
       </c>
@@ -3034,17 +1952,21 @@
       <c r="E38">
         <v>9.6159945702554456E-2</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="2">
         <v>5.4366325613840208E-2</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="2">
         <v>9.4484376593996028E-2</v>
       </c>
       <c r="H38">
         <v>0.33197367379183579</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>0.57540016216072376</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>54</v>
       </c>
@@ -3060,17 +1982,21 @@
       <c r="E39">
         <v>0.11050661149717909</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="2">
         <v>5.5095899687838269E-2</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="2">
         <v>0.10196326849077671</v>
       </c>
       <c r="H39">
         <v>0.31477903918646533</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>0.54035046643117446</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>55</v>
       </c>
@@ -3086,17 +2012,21 @@
       <c r="E40">
         <v>0.1248532823484205</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="2">
         <v>5.5825474018981629E-2</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="2">
         <v>0.1094421630235629</v>
       </c>
       <c r="H40">
         <v>0.29993444128031632</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>0.51009110635872945</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
@@ -3112,17 +2042,21 @@
       <c r="E41">
         <v>0.1391999498468372</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="2">
         <v>5.6555048179623063E-2</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="2">
         <v>0.1169210558085275</v>
       </c>
       <c r="H41">
         <v>0.28698892554112382</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>0.48370285222397286</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>57</v>
       </c>
@@ -3138,17 +2072,21 @@
       <c r="E42">
         <v>0.15354661386114449</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="2">
         <v>5.7284622163086343E-2</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="2">
         <v>0.1243999467772318</v>
       </c>
       <c r="H42">
         <v>0.27559997452797341</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>0.46048751343654765</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>58</v>
       </c>
@@ -3164,17 +2102,21 @@
       <c r="E43">
         <v>0.1678932848510668</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="2">
         <v>5.8014196501282013E-2</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="2">
         <v>0.13187884138231221</v>
       </c>
       <c r="H43">
         <v>0.26550276097571318</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>0.43990526374963257</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>59</v>
       </c>
@@ -3190,17 +2132,21 @@
       <c r="E44">
         <v>0.18223995277925659</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="2">
         <v>5.874377068377877E-2</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="2">
         <v>0.13935773439131671</v>
       </c>
       <c r="H44">
         <v>0.25648932109796091</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>0.42153218793602215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>60</v>
       </c>
@@ -3216,17 +2162,21 @@
       <c r="E45">
         <v>0.1965866184341554</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="2">
         <v>5.9473344750671377E-2</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="2">
         <v>0.1468366262152585</v>
       </c>
       <c r="H45">
         <v>0.24839405324665009</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>0.40503072212708746</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>61</v>
       </c>
@@ -3242,17 +2192,21 @@
       <c r="E46">
         <v>0.21093328739305151</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="2">
         <v>6.0202918985582873E-2</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="2">
         <v>0.1543155197615684</v>
       </c>
       <c r="H46">
         <v>0.24108345708237761</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>0.39012873804658071</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>62</v>
       </c>
@@ -3268,17 +2222,21 @@
       <c r="E47">
         <v>0.22527995492687999</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="2">
         <v>6.0932493148025103E-2</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="2">
         <v>0.16179441256499311</v>
       </c>
       <c r="H47">
         <v>0.2344487213536349</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>0.37660443387405862</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>63</v>
       </c>
@@ -3294,17 +2252,21 @@
       <c r="E48">
         <v>0.23962662274595159</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="2">
         <v>6.1662067324972848E-2</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="2">
         <v>0.16927330551711439</v>
       </c>
       <c r="H48">
         <v>0.22840026197198529</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>0.36427520060886681</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>64</v>
       </c>
@@ -3320,17 +2282,21 @@
       <c r="E49">
         <v>0.25397328989244478</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="2">
         <v>6.2391641467717827E-2</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="2">
         <v>0.17675219811862189</v>
       </c>
       <c r="H49">
         <v>0.2228636582006257</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>0.35298933836084778</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>65</v>
       </c>
@@ -3346,17 +2312,21 @@
       <c r="E50">
         <v>0.26831995871665482</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="2">
         <v>6.3121215695780108E-2</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="2">
         <v>0.18423109159472009</v>
       </c>
       <c r="H50">
         <v>0.21777657261045039</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>0.34261977796145843</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>66</v>
       </c>
@@ -3372,17 +2342,21 @@
       <c r="E51">
         <v>0.28266662368150453</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="2">
         <v>6.38507897275815E-2</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="2">
         <v>0.1917099830589406</v>
       </c>
       <c r="H51">
         <v>0.21308639787956191</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>0.3330592841790132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>67</v>
       </c>
@@ -3398,19 +2372,22 @@
       <c r="E52">
         <v>0.29701329251350678</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="2">
         <v>6.4580363956040027E-2</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="2">
         <v>0.199188876539101</v>
       </c>
       <c r="H52">
         <v>0.208748423498828</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>0.32421671871502739</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>